--- a/biology/Botanique/Poa_lanuginosa/Poa_lanuginosa.xlsx
+++ b/biology/Botanique/Poa_lanuginosa/Poa_lanuginosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa lanuginosa, le pâturin lanugineux, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Amérique du Sud.
-Ce sont des plantes herbacées vivaces, à rhizomes allongés, aux chaumes pouvant atteindre de 30 à 60 cm de haut et aux inflorescences en panicules. L'espèce est dioïque[2].
+Ce sont des plantes herbacées vivaces, à rhizomes allongés, aux chaumes pouvant atteindre de 30 à 60 cm de haut et aux inflorescences en panicules. L'espèce est dioïque.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Poa lanuginosa var. elata Speg.
 Poa lanuginosa var. lanuginosa
 Poa lanuginosa var. neuquina (Nicora) Giussani &amp; Soreng
